--- a/ProjectExpenditure.xlsx
+++ b/ProjectExpenditure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Taylor\Desktop\Installation Development Project\Installation-Development-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795CB834-5A46-4296-B4D7-5A794063CC3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79AE748-7238-45A5-AC58-A8116DB78C0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{C7E4EA15-94F4-4441-8453-360680C28491}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7E4EA15-94F4-4441-8453-360680C28491}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
       </c>
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>6</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -496,15 +496,15 @@
       </c>
       <c r="C10" s="1">
         <f>C7/4</f>
-        <v>1.5</v>
+        <v>1.6675</v>
       </c>
       <c r="D10" s="1">
         <f>C7/4</f>
-        <v>1.5</v>
+        <v>1.6675</v>
       </c>
       <c r="E10" s="1">
         <f>C7/4</f>
-        <v>1.5</v>
+        <v>1.6675</v>
       </c>
       <c r="F10" s="1"/>
     </row>

--- a/ProjectExpenditure.xlsx
+++ b/ProjectExpenditure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Taylor\Desktop\Installation Development Project\Installation-Development-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79AE748-7238-45A5-AC58-A8116DB78C0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297C743-3369-498C-AA1B-F7D784DE1C64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7E4EA15-94F4-4441-8453-360680C28491}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Expenditure</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Dan</t>
+  </si>
+  <si>
+    <t>Ping pong balls</t>
   </si>
 </sst>
 </file>
@@ -111,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178E4544-5E09-4602-9DB1-F4563AAC463B}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -488,7 +490,6 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -540,7 +541,6 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
@@ -604,7 +604,6 @@
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="4"/>
       <c r="E35" s="3" t="s">
         <v>7</v>
       </c>
@@ -644,7 +643,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
@@ -658,7 +662,7 @@
       </c>
       <c r="C46" s="1">
         <f>SUM(C43:C45)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,7 +672,6 @@
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
         <v>9</v>
       </c>
@@ -679,16 +682,16 @@
       </c>
       <c r="C49" s="1">
         <f>C46/4</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="D49" s="1">
         <f>C46/4</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
         <f>C46/4</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectExpenditure.xlsx
+++ b/ProjectExpenditure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Taylor\Desktop\Installation Development Project\Installation-Development-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297C743-3369-498C-AA1B-F7D784DE1C64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE429AD-36C2-440D-A9AA-2F94AE948746}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7E4EA15-94F4-4441-8453-360680C28491}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Expenditure</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Ping pong balls</t>
+  </si>
+  <si>
+    <t>Acrylic Sheet</t>
+  </si>
+  <si>
+    <t>Plastic Weld</t>
   </si>
 </sst>
 </file>
@@ -435,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178E4544-5E09-4602-9DB1-F4563AAC463B}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -457,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -465,19 +471,24 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
-        <v>6.67</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,15 +508,15 @@
       </c>
       <c r="C10" s="1">
         <f>C7/4</f>
-        <v>1.6675</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="D10" s="1">
         <f>C7/4</f>
-        <v>1.6675</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="E10" s="1">
         <f>C7/4</f>
-        <v>1.6675</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -583,7 +594,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>17.09</v>
+      </c>
     </row>
     <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
@@ -597,7 +613,7 @@
       </c>
       <c r="C33" s="1">
         <f>SUM(C30:C32)</f>
-        <v>0</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,16 +633,16 @@
       </c>
       <c r="C36" s="1">
         <f>C33/4</f>
-        <v>0</v>
+        <v>4.2725</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
         <f>C33/4</f>
-        <v>0</v>
+        <v>4.2725</v>
       </c>
       <c r="F36" s="1">
         <f>C33/4</f>
-        <v>0</v>
+        <v>4.2725</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
